--- a/프로젝트 공정도.xlsx
+++ b/프로젝트 공정도.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taewon\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SpringGit\Team_Five_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6AA6DA-BB11-45B6-9B4B-91EBD2D9C0F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1598C4E-8DD6-49E5-ABC0-9E94D80B2E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="516" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A반 1조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
+    <sheet name="박슬기" sheetId="8" r:id="rId2"/>
+    <sheet name="윤재연" sheetId="9" r:id="rId3"/>
+    <sheet name="한주희" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -408,33 +411,6 @@
     <xf numFmtId="56" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,6 +419,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -474,13 +465,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:HM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -917,198 +920,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:221" ht="31.5" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
     </row>
     <row r="2" spans="1:221" ht="28.35" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
     </row>
     <row r="3" spans="1:221" ht="33.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="35" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
     </row>
     <row r="4" spans="1:221" ht="21.2" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="48"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:221" ht="15" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
@@ -1120,17 +1123,17 @@
       <c r="AI5" s="16"/>
     </row>
     <row r="6" spans="1:221" s="5" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -1139,40 +1142,40 @@
       <c r="G6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
@@ -1183,19 +1186,19 @@
       <c r="HM6" s="3"/>
     </row>
     <row r="7" spans="1:221" s="5" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="17">
         <v>42282</v>
       </c>
@@ -1284,19 +1287,19 @@
       <c r="HM7" s="3"/>
     </row>
     <row r="8" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="28">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="30">
+      <c r="H8" s="42">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="19"/>
@@ -1334,15 +1337,15 @@
       <c r="HM8" s="3"/>
     </row>
     <row r="9" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
         <v>20</v>
@@ -1378,19 +1381,19 @@
       <c r="HM9" s="3"/>
     </row>
     <row r="10" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="28">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="30">
+      <c r="H10" s="42">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="19"/>
@@ -1428,15 +1431,15 @@
       <c r="HM10" s="3"/>
     </row>
     <row r="11" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="19"/>
       <c r="K11" s="20" t="s">
         <v>8</v>
@@ -1472,19 +1475,19 @@
       <c r="HM11" s="3"/>
     </row>
     <row r="12" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="28">
+      <c r="A12" s="30">
         <v>3</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="30">
+      <c r="H12" s="42">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="19"/>
@@ -1522,15 +1525,15 @@
       <c r="HM12" s="3"/>
     </row>
     <row r="13" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
         <v>8</v>
@@ -1566,19 +1569,19 @@
       <c r="HM13" s="3"/>
     </row>
     <row r="14" spans="1:221" ht="12" customHeight="1">
-      <c r="A14" s="28">
+      <c r="A14" s="30">
         <v>4</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="30">
+      <c r="H14" s="42">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="19"/>
@@ -1613,15 +1616,15 @@
       <c r="AI14" s="22"/>
     </row>
     <row r="15" spans="1:221">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
         <v>20</v>
@@ -1654,19 +1657,19 @@
       <c r="AI15" s="22"/>
     </row>
     <row r="16" spans="1:221" ht="12" customHeight="1">
-      <c r="A16" s="28">
+      <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="30">
+      <c r="H16" s="42">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="19"/>
@@ -1701,15 +1704,15 @@
       <c r="AI16" s="22"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
         <v>8</v>
@@ -1742,19 +1745,19 @@
       <c r="AI17" s="22"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="28">
+      <c r="A18" s="30">
         <v>6</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="30">
+      <c r="H18" s="42">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="19"/>
@@ -1789,15 +1792,15 @@
       <c r="AI18" s="22"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
         <v>8</v>
@@ -1830,19 +1833,19 @@
       <c r="AI19" s="22"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="28">
+      <c r="A20" s="30">
         <v>7</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="30">
+      <c r="H20" s="42">
         <v>1</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="19"/>
@@ -1877,15 +1880,15 @@
       <c r="AI20" s="22"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
         <v>8</v>
@@ -1918,19 +1921,19 @@
       <c r="AI21" s="22"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="28">
-        <v>8</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="30">
+        <v>8</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="30">
+      <c r="H22" s="42">
         <v>1</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="19"/>
@@ -1965,15 +1968,15 @@
       <c r="AI22" s="22"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
         <v>8</v>
@@ -2006,19 +2009,19 @@
       <c r="AI23" s="22"/>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="28">
+      <c r="A24" s="30">
         <v>9</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="30">
+      <c r="H24" s="42">
         <v>1</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="19"/>
@@ -2053,15 +2056,15 @@
       <c r="AI24" s="20"/>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
       <c r="J25" s="19"/>
       <c r="K25" s="20" t="s">
         <v>8</v>
@@ -2094,19 +2097,19 @@
       <c r="AI25" s="19"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="28">
+      <c r="A26" s="30">
         <v>10</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="32">
+      <c r="H26" s="44">
         <v>1</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="19"/>
@@ -2141,15 +2144,15 @@
       <c r="AI26" s="19"/>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="43"/>
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -2190,19 +2193,19 @@
       <c r="AI27" s="19"/>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" s="28">
+      <c r="A28" s="30">
         <v>11</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="32">
+      <c r="H28" s="44">
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="19"/>
@@ -2245,15 +2248,15 @@
       <c r="AI28" s="19"/>
     </row>
     <row r="29" spans="1:35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -2298,34 +2301,34 @@
       <c r="AI29" s="19"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
@@ -2337,32 +2340,32 @@
       <c r="AI31" s="15"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
@@ -2450,63 +2453,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="76">
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J6:AI6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
@@ -2523,9 +2469,66 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J6:AI6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2534,4 +2537,4340 @@
     <oddFooter>&amp;C&amp;"Arial,보통"&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E6374A-249A-48F6-9B31-85589C2FCBF5}">
+  <dimension ref="A1:AI29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+    </row>
+    <row r="3" spans="1:35" ht="14.25">
+      <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+    </row>
+    <row r="4" spans="1:35" ht="13.5">
+      <c r="A4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="17">
+        <v>42282</v>
+      </c>
+      <c r="K7" s="17">
+        <v>42283</v>
+      </c>
+      <c r="L7" s="17">
+        <v>42284</v>
+      </c>
+      <c r="M7" s="17">
+        <v>42285</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42286</v>
+      </c>
+      <c r="O7" s="17">
+        <v>42287</v>
+      </c>
+      <c r="P7" s="17">
+        <v>42288</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>42289</v>
+      </c>
+      <c r="R7" s="17">
+        <v>42290</v>
+      </c>
+      <c r="S7" s="17">
+        <v>42291</v>
+      </c>
+      <c r="T7" s="17">
+        <v>42292</v>
+      </c>
+      <c r="U7" s="17">
+        <v>42293</v>
+      </c>
+      <c r="V7" s="17">
+        <v>42294</v>
+      </c>
+      <c r="W7" s="17">
+        <v>42295</v>
+      </c>
+      <c r="X7" s="17">
+        <v>42296</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>42297</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>42298</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>42299</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>42300</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>42301</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>42302</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>42303</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>42304</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>42305</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>42306</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="30">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="42">
+        <v>1</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="30">
+        <v>2</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="42">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="30">
+        <v>3</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="42">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="30">
+        <v>4</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="30">
+        <v>5</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="42">
+        <v>1</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" s="30">
+        <v>7</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="30">
+        <v>8</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="30">
+        <v>9</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="30">
+        <v>10</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="44">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" s="30">
+        <v>11</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="44">
+        <v>1</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="21"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A5:Z5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:AI6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:AI4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B4FCD-1351-4111-B532-600263F88C65}">
+  <dimension ref="A1:AI29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+    </row>
+    <row r="3" spans="1:35" ht="14.25">
+      <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+    </row>
+    <row r="4" spans="1:35" ht="13.5">
+      <c r="A4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="17">
+        <v>42282</v>
+      </c>
+      <c r="K7" s="17">
+        <v>42283</v>
+      </c>
+      <c r="L7" s="17">
+        <v>42284</v>
+      </c>
+      <c r="M7" s="17">
+        <v>42285</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42286</v>
+      </c>
+      <c r="O7" s="17">
+        <v>42287</v>
+      </c>
+      <c r="P7" s="17">
+        <v>42288</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>42289</v>
+      </c>
+      <c r="R7" s="17">
+        <v>42290</v>
+      </c>
+      <c r="S7" s="17">
+        <v>42291</v>
+      </c>
+      <c r="T7" s="17">
+        <v>42292</v>
+      </c>
+      <c r="U7" s="17">
+        <v>42293</v>
+      </c>
+      <c r="V7" s="17">
+        <v>42294</v>
+      </c>
+      <c r="W7" s="17">
+        <v>42295</v>
+      </c>
+      <c r="X7" s="17">
+        <v>42296</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>42297</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>42298</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>42299</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>42300</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>42301</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>42302</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>42303</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>42304</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>42305</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>42306</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="30">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="42">
+        <v>1</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="30">
+        <v>2</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="42">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="30">
+        <v>3</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="42">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="30">
+        <v>4</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="30">
+        <v>5</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="42">
+        <v>1</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" s="30">
+        <v>7</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="30">
+        <v>8</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="30">
+        <v>9</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="30">
+        <v>10</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="44">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" s="30">
+        <v>11</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="44">
+        <v>1</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="21"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A5:Z5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:AI6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:AI4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C62D316-A188-462F-A814-7D42FCA1C02F}">
+  <dimension ref="A1:AI29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+    </row>
+    <row r="3" spans="1:35" ht="14.25">
+      <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+    </row>
+    <row r="4" spans="1:35" ht="13.5">
+      <c r="A4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="17">
+        <v>42282</v>
+      </c>
+      <c r="K7" s="17">
+        <v>42283</v>
+      </c>
+      <c r="L7" s="17">
+        <v>42284</v>
+      </c>
+      <c r="M7" s="17">
+        <v>42285</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42286</v>
+      </c>
+      <c r="O7" s="17">
+        <v>42287</v>
+      </c>
+      <c r="P7" s="17">
+        <v>42288</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>42289</v>
+      </c>
+      <c r="R7" s="17">
+        <v>42290</v>
+      </c>
+      <c r="S7" s="17">
+        <v>42291</v>
+      </c>
+      <c r="T7" s="17">
+        <v>42292</v>
+      </c>
+      <c r="U7" s="17">
+        <v>42293</v>
+      </c>
+      <c r="V7" s="17">
+        <v>42294</v>
+      </c>
+      <c r="W7" s="17">
+        <v>42295</v>
+      </c>
+      <c r="X7" s="17">
+        <v>42296</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>42297</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>42298</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>42299</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>42300</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>42301</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>42302</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>42303</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>42304</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>42305</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>42306</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="30">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="42">
+        <v>1</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="30">
+        <v>2</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="42">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="30">
+        <v>3</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="42">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="30">
+        <v>4</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="30">
+        <v>5</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="42">
+        <v>1</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" s="30">
+        <v>7</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="30">
+        <v>8</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="30">
+        <v>9</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="30">
+        <v>10</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="44">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" s="30">
+        <v>11</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="44">
+        <v>1</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="21"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A5:Z5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:AI6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:AI4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/프로젝트 공정도.xlsx
+++ b/프로젝트 공정도.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SpringGit\Team_Five_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_Five_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1598C4E-8DD6-49E5-ABC0-9E94D80B2E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36795F-1971-4203-87B2-31C59988A2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="516" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="516" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A반 1조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -146,6 +146,94 @@
     <t>박슬기 윤재연 한주희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>윤재연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 주제 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제안서 작성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">usecase 작성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart API 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmap API 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.09</t>
+  </si>
+  <si>
+    <t>2020.03.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.12</t>
+  </si>
+  <si>
+    <t>2020.03.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.13</t>
+  </si>
+  <si>
+    <t>2020.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.19</t>
+  </si>
+  <si>
+    <t>2020.03.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +322,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +347,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -342,11 +436,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -485,6 +632,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,25 +1066,25 @@
   <dimension ref="A1:HM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AI29"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="28" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" style="9" customWidth="1"/>
-    <col min="12" max="35" width="5.5703125" style="2" customWidth="1"/>
-    <col min="36" max="40" width="3.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5546875" style="9" customWidth="1"/>
+    <col min="12" max="35" width="5.5546875" style="2" customWidth="1"/>
+    <col min="36" max="40" width="3.6640625" style="2" customWidth="1"/>
     <col min="41" max="218" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="219" max="16384" width="9.140625" style="3"/>
+    <col min="219" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:221" ht="31.5" customHeight="1">
@@ -1040,7 +1208,7 @@
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
     </row>
-    <row r="4" spans="1:221" ht="21.2" customHeight="1">
+    <row r="4" spans="1:221" ht="21.15" customHeight="1">
       <c r="A4" s="36" t="s">
         <v>26</v>
       </c>
@@ -1286,7 +1454,7 @@
       <c r="HL7" s="3"/>
       <c r="HM7" s="3"/>
     </row>
-    <row r="8" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
+    <row r="8" spans="1:221" s="6" customFormat="1" ht="11.7" customHeight="1">
       <c r="A8" s="30">
         <v>1</v>
       </c>
@@ -1336,7 +1504,7 @@
       <c r="HL8" s="3"/>
       <c r="HM8" s="3"/>
     </row>
-    <row r="9" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
+    <row r="9" spans="1:221" s="6" customFormat="1" ht="11.7" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -1380,7 +1548,7 @@
       <c r="HL9" s="3"/>
       <c r="HM9" s="3"/>
     </row>
-    <row r="10" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
+    <row r="10" spans="1:221" s="6" customFormat="1" ht="11.7" customHeight="1">
       <c r="A10" s="30">
         <v>2</v>
       </c>
@@ -1430,7 +1598,7 @@
       <c r="HL10" s="3"/>
       <c r="HM10" s="3"/>
     </row>
-    <row r="11" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
+    <row r="11" spans="1:221" s="6" customFormat="1" ht="11.7" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -1474,7 +1642,7 @@
       <c r="HL11" s="3"/>
       <c r="HM11" s="3"/>
     </row>
-    <row r="12" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
+    <row r="12" spans="1:221" s="6" customFormat="1" ht="11.7" customHeight="1">
       <c r="A12" s="30">
         <v>3</v>
       </c>
@@ -1524,7 +1692,7 @@
       <c r="HL12" s="3"/>
       <c r="HM12" s="3"/>
     </row>
-    <row r="13" spans="1:221" s="6" customFormat="1" ht="11.65" customHeight="1">
+    <row r="13" spans="1:221" s="6" customFormat="1" ht="11.7" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2376,7 +2544,7 @@
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
     </row>
-    <row r="33" spans="1:35" ht="19.5">
+    <row r="33" spans="1:35" ht="19.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2413,7 +2581,7 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
     </row>
-    <row r="34" spans="1:35" ht="19.5">
+    <row r="34" spans="1:35" ht="19.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2549,9 +2717,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -2630,7 +2798,7 @@
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
     </row>
-    <row r="3" spans="1:35" ht="14.25">
+    <row r="3" spans="1:35" ht="15.6">
       <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
@@ -2675,7 +2843,7 @@
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5">
+    <row r="4" spans="1:35" ht="14.4">
       <c r="A4" s="36" t="s">
         <v>26</v>
       </c>
@@ -2757,7 +2925,7 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" ht="13.2">
       <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2980,7 @@
       <c r="AH6" s="31"/>
       <c r="AI6" s="31"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" ht="13.2">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -3909,16 +4077,16 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -3929,38 +4097,38 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A5:Z5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -3969,15 +4137,15 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:AI6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:AI4"/>
     <mergeCell ref="A1:AI2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3989,15 +4157,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B4FCD-1351-4111-B532-600263F88C65}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -4076,7 +4245,7 @@
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
     </row>
-    <row r="3" spans="1:35" ht="14.25">
+    <row r="3" spans="1:35" ht="15.6">
       <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +4290,7 @@
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5">
+    <row r="4" spans="1:35" ht="14.4">
       <c r="A4" s="36" t="s">
         <v>26</v>
       </c>
@@ -4203,7 +4372,7 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" ht="13.2">
       <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
@@ -4258,7 +4427,7 @@
       <c r="AH6" s="31"/>
       <c r="AI6" s="31"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" ht="13.2">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -4273,81 +4442,69 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="17">
-        <v>42282</v>
+        <v>42286</v>
       </c>
       <c r="K7" s="17">
-        <v>42283</v>
+        <v>42287</v>
       </c>
       <c r="L7" s="17">
-        <v>42284</v>
+        <v>42288</v>
       </c>
       <c r="M7" s="17">
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="N7" s="17">
-        <v>42286</v>
+        <v>42290</v>
       </c>
       <c r="O7" s="17">
-        <v>42287</v>
+        <v>42291</v>
       </c>
       <c r="P7" s="17">
-        <v>42288</v>
+        <v>42292</v>
       </c>
       <c r="Q7" s="17">
-        <v>42289</v>
+        <v>42293</v>
       </c>
       <c r="R7" s="17">
-        <v>42290</v>
+        <v>42294</v>
       </c>
       <c r="S7" s="17">
-        <v>42291</v>
+        <v>42295</v>
       </c>
       <c r="T7" s="17">
-        <v>42292</v>
+        <v>42296</v>
       </c>
       <c r="U7" s="17">
-        <v>42293</v>
+        <v>42297</v>
       </c>
       <c r="V7" s="17">
-        <v>42294</v>
+        <v>42298</v>
       </c>
       <c r="W7" s="17">
-        <v>42295</v>
+        <v>42299</v>
       </c>
       <c r="X7" s="17">
-        <v>42296</v>
+        <v>42300</v>
       </c>
       <c r="Y7" s="17">
-        <v>42297</v>
+        <v>42301</v>
       </c>
       <c r="Z7" s="17">
-        <v>42298</v>
+        <v>42302</v>
       </c>
       <c r="AA7" s="17">
-        <v>42299</v>
+        <v>42303</v>
       </c>
       <c r="AB7" s="17">
-        <v>42300</v>
+        <v>42304</v>
       </c>
       <c r="AC7" s="17">
-        <v>42301</v>
+        <v>42305</v>
       </c>
       <c r="AD7" s="17">
-        <v>42302</v>
+        <v>42306</v>
       </c>
       <c r="AE7" s="17">
-        <v>42303</v>
-      </c>
-      <c r="AF7" s="17">
-        <v>42304</v>
-      </c>
-      <c r="AG7" s="17">
-        <v>42305</v>
-      </c>
-      <c r="AH7" s="17">
-        <v>42306</v>
-      </c>
-      <c r="AI7" s="17">
         <v>42307</v>
       </c>
     </row>
@@ -4355,624 +4512,634 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="50"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="E8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="42">
         <v>1</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>16</v>
+      <c r="K8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>7</v>
       </c>
       <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="22"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="21"/>
       <c r="AD8" s="21"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
+      <c r="AE8" s="22"/>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="42"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="20" t="s">
+      <c r="J9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="55" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
+      <c r="AE9" s="22"/>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="E10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="H10" s="42">
         <v>1</v>
       </c>
       <c r="I10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="20"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
+      <c r="AE10" s="22"/>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="42"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="20"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="22"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="21"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
+      <c r="AE11" s="22"/>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="30">
         <v>3</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="E12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="42">
         <v>1</v>
       </c>
       <c r="I12" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="21"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
+      <c r="AE12" s="22"/>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="42"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
       <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
+      <c r="AE13" s="22"/>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="30">
-        <v>4</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="42">
         <v>1</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+      <c r="Q14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="55"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="22"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="21"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
+      <c r="AE14" s="22"/>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="H15" s="42"/>
       <c r="I15" s="43"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
       <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+      <c r="Q15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="55"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
+      <c r="AE15" s="22"/>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="H16" s="42">
         <v>1</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="22"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AE16" s="22"/>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="30"/>
       <c r="E17" s="45"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="H17" s="42"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
       <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="22"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="21"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AE17" s="22"/>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="30">
         <v>6</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="H18" s="42">
         <v>1</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
+      <c r="N18" s="20"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="21"/>
       <c r="AD18" s="21"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AE18" s="22"/>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="30"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="H19" s="42"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AE19" s="22"/>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="30">
         <v>7</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="H20" s="42">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>16</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
       <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="N20" s="20"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="22"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="20"/>
+      <c r="X20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="AB20" s="20"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="21"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AE20" s="22"/>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="30"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="42"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
       <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="22"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
+      <c r="X21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="21"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AE21" s="22"/>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="30">
         <v>8</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="14"/>
@@ -4983,84 +5150,68 @@
       <c r="I22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="22"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="21"/>
       <c r="AD22" s="21"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AE22" s="22"/>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="30"/>
       <c r="E23" s="45"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="42"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="20"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="22"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="21"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AE23" s="22"/>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="30">
         <v>9</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="14"/>
@@ -5071,79 +5222,63 @@
       <c r="I24" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
+      <c r="N24" s="20"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="21"/>
       <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-    </row>
-    <row r="25" spans="1:35">
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="30"/>
       <c r="E25" s="45"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="42"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="20"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="21"/>
       <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-    </row>
-    <row r="26" spans="1:35">
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="30">
         <v>10</v>
       </c>
@@ -5159,38 +5294,32 @@
       <c r="I26" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="21" t="s">
+      <c r="J26" s="55" t="s">
         <v>7</v>
       </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
       <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-    </row>
-    <row r="27" spans="1:35">
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -5200,46 +5329,42 @@
       <c r="G27" s="14"/>
       <c r="H27" s="44"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="21" t="s">
+      <c r="J27" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="L27" s="55" t="s">
         <v>17</v>
       </c>
+      <c r="M27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
       <c r="Q27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="R27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
       <c r="AC27" s="21"/>
       <c r="AD27" s="21"/>
       <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-    </row>
-    <row r="28" spans="1:35">
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="30">
         <v>11</v>
       </c>
@@ -5255,46 +5380,46 @@
       <c r="I28" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="P28" s="21"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20" t="s">
+      <c r="Q28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="S28" s="55"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="21" t="s">
         <v>7</v>
       </c>
       <c r="W28" s="21"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="19"/>
       <c r="AC28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AD28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE28" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="19"/>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -5304,67 +5429,66 @@
       <c r="G29" s="14"/>
       <c r="H29" s="44"/>
       <c r="I29" s="43"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="P29" s="21"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="20" t="s">
+      <c r="Q29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="U29" s="20" t="s">
+      <c r="R29" s="55" t="s">
         <v>17</v>
       </c>
+      <c r="S29" s="55"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="21" t="s">
         <v>17</v>
       </c>
       <c r="W29" s="21"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="X29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB29" s="19"/>
       <c r="AC29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AD29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="74">
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B8:C25"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -5375,38 +5499,36 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A5:Z5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -5415,18 +5537,19 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:AI6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:AI4"/>
     <mergeCell ref="A1:AI2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5440,9 +5563,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -5521,7 +5644,7 @@
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
     </row>
-    <row r="3" spans="1:35" ht="14.25">
+    <row r="3" spans="1:35" ht="15.6">
       <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
@@ -5566,7 +5689,7 @@
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5">
+    <row r="4" spans="1:35" ht="14.4">
       <c r="A4" s="36" t="s">
         <v>26</v>
       </c>
@@ -5648,7 +5771,7 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" ht="13.2">
       <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
@@ -5703,7 +5826,7 @@
       <c r="AH6" s="31"/>
       <c r="AI6" s="31"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" ht="13.2">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -6800,16 +6923,16 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -6820,38 +6943,38 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A5:Z5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -6860,15 +6983,15 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:AI6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:AI4"/>
     <mergeCell ref="A1:AI2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
